--- a/LinqPad/dseTemplate.xlsx
+++ b/LinqPad/dseTemplate.xlsx
@@ -17,13 +17,15 @@
     <sheet name="Latency" sheetId="14" r:id="rId3"/>
     <sheet name="Storage-Size" sheetId="15" r:id="rId4"/>
     <sheet name="CFStats" sheetId="4" r:id="rId5"/>
+    <sheet name="TPStats" sheetId="16" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">CFStats!$A$1:$H$13121</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
+    <pivotCache cacheId="1" r:id="rId8"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -50,10 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="64">
-  <si>
-    <t>Node IPAdress</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="102">
   <si>
     <t>Data Center</t>
   </si>
@@ -243,6 +242,123 @@
   <si>
     <t>TestDC</t>
   </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Blocked</t>
+  </si>
+  <si>
+    <t>All time blocked</t>
+  </si>
+  <si>
+    <t>Dropped</t>
+  </si>
+  <si>
+    <t>MutationStage</t>
+  </si>
+  <si>
+    <t>ReadStage</t>
+  </si>
+  <si>
+    <t>RequestResponseStage</t>
+  </si>
+  <si>
+    <t>ReadRepairStage</t>
+  </si>
+  <si>
+    <t>CounterMutationStage</t>
+  </si>
+  <si>
+    <t>MiscStage</t>
+  </si>
+  <si>
+    <t>AntiEntropySessions</t>
+  </si>
+  <si>
+    <t>HintedHandoff</t>
+  </si>
+  <si>
+    <t>GossipStage</t>
+  </si>
+  <si>
+    <t>CacheCleanupExecutor</t>
+  </si>
+  <si>
+    <t>InternalResponseStage</t>
+  </si>
+  <si>
+    <t>CommitLogArchiver</t>
+  </si>
+  <si>
+    <t>CompactionExecutor</t>
+  </si>
+  <si>
+    <t>ValidationExecutor</t>
+  </si>
+  <si>
+    <t>MigrationStage</t>
+  </si>
+  <si>
+    <t>AntiEntropyStage</t>
+  </si>
+  <si>
+    <t>PendingRangeCalculator</t>
+  </si>
+  <si>
+    <t>Sampler</t>
+  </si>
+  <si>
+    <t>MemtableFlushWriter</t>
+  </si>
+  <si>
+    <t>MemtablePostFlush</t>
+  </si>
+  <si>
+    <t>MemtableReclaimMemory</t>
+  </si>
+  <si>
+    <t>READ</t>
+  </si>
+  <si>
+    <t>RANGE_SLICE</t>
+  </si>
+  <si>
+    <t>_TRACE</t>
+  </si>
+  <si>
+    <t>MUTATION</t>
+  </si>
+  <si>
+    <t>COUNTER_MUTATION</t>
+  </si>
+  <si>
+    <t>BINARY</t>
+  </si>
+  <si>
+    <t>REQUEST_RESPONSE</t>
+  </si>
+  <si>
+    <t>PAGED_RANGE</t>
+  </si>
+  <si>
+    <t>READ_REPAIR</t>
+  </si>
+  <si>
+    <t>(blank)</t>
+  </si>
+  <si>
+    <t>Sum of Dropped</t>
+  </si>
+  <si>
+    <t>Node IPAddress</t>
+  </si>
 </sst>
 </file>
 
@@ -286,7 +402,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -308,6 +424,9 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -326,7 +445,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Richard H. Andersen Jr." refreshedDate="42605.721543981483" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="3170">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Richard H. Andersen Jr." refreshedDate="42606.725921296296" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="3170">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:I1048576" sheet="CFStats"/>
   </cacheSource>
@@ -339,16 +458,10 @@
         <s v="DC2" u="1"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Node IPAdress" numFmtId="0">
-      <sharedItems containsBlank="1" count="8">
+    <cacheField name="Node IPAddress" numFmtId="0">
+      <sharedItems containsBlank="1" count="2">
         <s v="0.0.0.0"/>
         <m/>
-        <s v="10.27.34.14" u="1"/>
-        <s v="10.27.34.52" u="1"/>
-        <s v="10.27.34.16" u="1"/>
-        <s v="10.27.34.19" u="1"/>
-        <s v="10.27.34.56" u="1"/>
-        <s v="10.211.34.169" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="KeySpace" numFmtId="0">
@@ -356,12 +469,12 @@
         <s v="TestKS"/>
         <m/>
         <s v="OpsCenter" u="1"/>
+        <s v="production_mqh_config" u="1"/>
+        <s v="production_ssp_ids" u="1"/>
+        <s v="production_versions" u="1"/>
+        <s v="production_mqh_bi" u="1"/>
         <s v="production_mqh_data" u="1"/>
-        <s v="production_mqh_config" u="1"/>
-        <s v="production_mqh_bi" u="1"/>
-        <s v="production_ssp_ids" u="1"/>
         <s v="production_iqh_lnextract" u="1"/>
-        <s v="production_versions" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Table" numFmtId="0">
@@ -455,6 +568,54 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Richard H. Andersen Jr." refreshedDate="42606.726434259261" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="31">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:I1048576" sheet="TPStats"/>
+  </cacheSource>
+  <cacheFields count="9">
+    <cacheField name="Data Center" numFmtId="0">
+      <sharedItems containsBlank="1" count="2">
+        <s v="TestDC"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Node IPAddress" numFmtId="0">
+      <sharedItems containsBlank="1" count="2">
+        <s v="0.0.0.0"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Attribute" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Active" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+    </cacheField>
+    <cacheField name="Pending" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
+    </cacheField>
+    <cacheField name="Completed" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="397905909"/>
+    </cacheField>
+    <cacheField name="Blocked" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+    </cacheField>
+    <cacheField name="All time blocked" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+    </cacheField>
+    <cacheField name="Dropped" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="4670"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="3170">
   <r>
@@ -35322,6 +35483,352 @@
     <x v="1"/>
     <x v="0"/>
     <x v="33"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="31">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="MutationStage"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="346708473"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="ReadStage"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="9373164"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="RequestResponseStage"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="397905909"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="ReadRepairStage"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="14840"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CounterMutationStage"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="MiscStage"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="AntiEntropySessions"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3728"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="HintedHandoff"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="8237"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="GossipStage"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="9047891"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CacheCleanupExecutor"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="InternalResponseStage"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="126"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CommitLogArchiver"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CompactionExecutor"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="2646529"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="ValidationExecutor"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="36102"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="MigrationStage"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="269"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="AntiEntropyStage"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="305803"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="PendingRangeCalculator"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="51"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Sampler"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="MemtableFlushWriter"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="94410"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="MemtablePostFlush"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="174045"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="MemtableReclaimMemory"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="94416"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="READ"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="RANGE_SLICE"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="_TRACE"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="551"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="MUTATION"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="4670"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="COUNTER_MUTATION"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="BINARY"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="REQUEST_RESPONSE"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="PAGED_RANGE"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="READ_REPAIR"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -35331,8 +35838,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="I5:K7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="V4:W6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField axis="axisPage" showAll="0">
       <items count="5">
@@ -35343,66 +35850,14 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="9">
-        <item m="1" x="5"/>
-        <item m="1" x="4"/>
-        <item m="1" x="2"/>
-        <item m="1" x="3"/>
-        <item m="1" x="6"/>
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="2">
+        <item x="0"/>
         <item x="1"/>
-        <item m="1" x="7"/>
-        <item x="0"/>
-        <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="10">
-        <item m="1" x="2"/>
-        <item m="1" x="7"/>
-        <item m="1" x="3"/>
-        <item m="1" x="6"/>
-        <item m="1" x="8"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="29">
-        <item sd="0" m="1" x="19"/>
-        <item sd="0" m="1" x="17"/>
-        <item sd="0" m="1" x="20"/>
-        <item sd="0" m="1" x="23"/>
-        <item sd="0" m="1" x="7"/>
-        <item sd="0" m="1" x="12"/>
-        <item sd="0" m="1" x="25"/>
-        <item sd="0" m="1" x="14"/>
-        <item sd="0" m="1" x="13"/>
-        <item sd="0" m="1" x="22"/>
-        <item sd="0" x="0"/>
-        <item sd="0" m="1" x="3"/>
-        <item sd="0" m="1" x="6"/>
-        <item sd="0" m="1" x="4"/>
-        <item sd="0" m="1" x="8"/>
-        <item sd="0" m="1" x="5"/>
-        <item sd="0" m="1" x="10"/>
-        <item sd="0" m="1" x="16"/>
-        <item sd="0" m="1" x="21"/>
-        <item sd="0" m="1" x="27"/>
-        <item sd="0" m="1" x="11"/>
-        <item sd="0" m="1" x="15"/>
-        <item sd="0" m="1" x="18"/>
-        <item sd="0" m="1" x="2"/>
-        <item sd="0" m="1" x="26"/>
-        <item sd="0" m="1" x="24"/>
-        <item sd="0" m="1" x="9"/>
-        <item sd="0" x="1"/>
-        <item t="default" sd="0"/>
-      </items>
-    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField axis="axisPage" showAll="0">
       <items count="35">
         <item x="29"/>
@@ -35447,37 +35902,26 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0" defaultSubtotal="0"/>
   </pivotFields>
-  <rowFields count="2">
-    <field x="3"/>
+  <rowFields count="1">
     <field x="1"/>
   </rowFields>
   <rowItems count="2">
     <i>
-      <x v="27"/>
+      <x/>
     </i>
     <i t="grand">
       <x/>
     </i>
   </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
+  <colItems count="1">
+    <i/>
   </colItems>
-  <pageFields count="3">
+  <pageFields count="2">
     <pageField fld="0" hier="-1"/>
-    <pageField fld="2" hier="-1"/>
-    <pageField fld="4" item="16" hier="-1"/>
+    <pageField fld="4" item="1" hier="-1"/>
   </pageFields>
-  <dataFields count="2">
+  <dataFields count="1">
     <dataField name="Sum of Value" fld="5" baseField="3" baseItem="0" numFmtId="3"/>
-    <dataField name="Average of Value" fld="5" subtotal="average" baseField="3" baseItem="19" numFmtId="3"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -35489,484 +35933,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="G6:J8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="9">
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="2"/>
-        <item m="1" x="3"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="9">
-        <item m="1" x="5"/>
-        <item m="1" x="4"/>
-        <item m="1" x="2"/>
-        <item m="1" x="3"/>
-        <item m="1" x="6"/>
-        <item x="1"/>
-        <item m="1" x="7"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="10">
-        <item m="1" x="2"/>
-        <item m="1" x="7"/>
-        <item m="1" x="3"/>
-        <item m="1" x="6"/>
-        <item m="1" x="8"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="29">
-        <item m="1" x="19"/>
-        <item m="1" x="17"/>
-        <item m="1" x="20"/>
-        <item m="1" x="23"/>
-        <item m="1" x="7"/>
-        <item m="1" x="12"/>
-        <item m="1" x="25"/>
-        <item m="1" x="14"/>
-        <item m="1" x="13"/>
-        <item m="1" x="22"/>
-        <item x="0"/>
-        <item m="1" x="3"/>
-        <item m="1" x="6"/>
-        <item m="1" x="4"/>
-        <item m="1" x="8"/>
-        <item m="1" x="5"/>
-        <item m="1" x="10"/>
-        <item m="1" x="16"/>
-        <item m="1" x="21"/>
-        <item m="1" x="27"/>
-        <item m="1" x="11"/>
-        <item m="1" x="15"/>
-        <item m="1" x="18"/>
-        <item m="1" x="2"/>
-        <item m="1" x="26"/>
-        <item m="1" x="24"/>
-        <item m="1" x="9"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="35">
-        <item x="29"/>
-        <item x="31"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="23"/>
-        <item x="22"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="26"/>
-        <item x="25"/>
-        <item x="24"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="30"/>
-        <item x="32"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="11"/>
-        <item x="9"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="10"/>
-        <item x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="33"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x v="7"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="0" hier="-1"/>
-    <pageField fld="2" hier="-1"/>
-    <pageField fld="4" item="27" hier="-1"/>
-    <pageField fld="3" hier="-1"/>
-  </pageFields>
-  <dataFields count="3">
-    <dataField name="Sum of Size in MB(Formatted)" fld="7" baseField="3" baseItem="0" numFmtId="4"/>
-    <dataField name="Average of Size in MB(Formatted)" fld="7" subtotal="average" baseField="3" baseItem="19" numFmtId="4"/>
-    <dataField name="StdDev of Size in MB(Formatted)" fld="7" subtotal="stdDev" baseField="3" baseItem="19" numFmtId="4"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="E5:G7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="9">
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="2"/>
-        <item m="1" x="3"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="9">
-        <item m="1" x="5"/>
-        <item m="1" x="4"/>
-        <item m="1" x="2"/>
-        <item m="1" x="3"/>
-        <item m="1" x="6"/>
-        <item x="1"/>
-        <item m="1" x="7"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="10">
-        <item m="1" x="2"/>
-        <item m="1" x="7"/>
-        <item m="1" x="3"/>
-        <item m="1" x="6"/>
-        <item m="1" x="8"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="29">
-        <item sd="0" m="1" x="19"/>
-        <item sd="0" m="1" x="17"/>
-        <item sd="0" m="1" x="20"/>
-        <item sd="0" m="1" x="23"/>
-        <item sd="0" m="1" x="7"/>
-        <item sd="0" m="1" x="12"/>
-        <item sd="0" m="1" x="25"/>
-        <item sd="0" m="1" x="14"/>
-        <item sd="0" m="1" x="13"/>
-        <item sd="0" m="1" x="22"/>
-        <item sd="0" x="0"/>
-        <item sd="0" m="1" x="3"/>
-        <item sd="0" m="1" x="6"/>
-        <item sd="0" m="1" x="4"/>
-        <item sd="0" m="1" x="8"/>
-        <item sd="0" m="1" x="5"/>
-        <item sd="0" m="1" x="10"/>
-        <item sd="0" m="1" x="16"/>
-        <item sd="0" m="1" x="21"/>
-        <item sd="0" m="1" x="27"/>
-        <item sd="0" m="1" x="11"/>
-        <item sd="0" m="1" x="15"/>
-        <item sd="0" m="1" x="18"/>
-        <item sd="0" m="1" x="2"/>
-        <item sd="0" m="1" x="26"/>
-        <item sd="0" m="1" x="24"/>
-        <item sd="0" m="1" x="9"/>
-        <item sd="0" x="1"/>
-        <item t="default" sd="0"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="35">
-        <item x="29"/>
-        <item x="31"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="23"/>
-        <item x="22"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="26"/>
-        <item x="25"/>
-        <item x="24"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="30"/>
-        <item x="32"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="11"/>
-        <item x="9"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="10"/>
-        <item x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="33"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="3"/>
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x v="27"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="0" hier="-1"/>
-    <pageField fld="2" hier="-1"/>
-    <pageField fld="4" item="13" hier="-1"/>
-  </pageFields>
-  <dataFields count="2">
-    <dataField name="Sum of Value" fld="5" baseField="3" baseItem="0" numFmtId="3"/>
-    <dataField name="Average of Value" fld="5" subtotal="average" baseField="3" baseItem="19" numFmtId="3"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A5:C7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="9">
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="2"/>
-        <item m="1" x="3"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="9">
-        <item m="1" x="5"/>
-        <item m="1" x="4"/>
-        <item m="1" x="2"/>
-        <item m="1" x="3"/>
-        <item m="1" x="6"/>
-        <item x="1"/>
-        <item m="1" x="7"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="10">
-        <item m="1" x="2"/>
-        <item m="1" x="7"/>
-        <item m="1" x="3"/>
-        <item m="1" x="6"/>
-        <item m="1" x="8"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="29">
-        <item sd="0" m="1" x="19"/>
-        <item sd="0" m="1" x="17"/>
-        <item sd="0" m="1" x="20"/>
-        <item sd="0" m="1" x="23"/>
-        <item sd="0" m="1" x="7"/>
-        <item sd="0" m="1" x="12"/>
-        <item sd="0" m="1" x="25"/>
-        <item sd="0" m="1" x="14"/>
-        <item sd="0" m="1" x="13"/>
-        <item sd="0" m="1" x="22"/>
-        <item sd="0" x="0"/>
-        <item sd="0" m="1" x="3"/>
-        <item sd="0" m="1" x="6"/>
-        <item sd="0" m="1" x="4"/>
-        <item sd="0" m="1" x="8"/>
-        <item sd="0" m="1" x="5"/>
-        <item sd="0" m="1" x="10"/>
-        <item sd="0" m="1" x="16"/>
-        <item sd="0" m="1" x="21"/>
-        <item sd="0" m="1" x="27"/>
-        <item sd="0" m="1" x="11"/>
-        <item sd="0" m="1" x="15"/>
-        <item sd="0" m="1" x="18"/>
-        <item sd="0" m="1" x="2"/>
-        <item sd="0" m="1" x="26"/>
-        <item sd="0" m="1" x="24"/>
-        <item sd="0" m="1" x="9"/>
-        <item sd="0" x="1"/>
-        <item t="default" sd="0"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="35">
-        <item x="29"/>
-        <item x="31"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="23"/>
-        <item x="22"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="26"/>
-        <item x="25"/>
-        <item x="24"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="30"/>
-        <item x="32"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="11"/>
-        <item x="9"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="10"/>
-        <item x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="33"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="3"/>
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x v="27"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="0" hier="-1"/>
-    <pageField fld="2" hier="-1"/>
-    <pageField fld="4" item="11" hier="-1"/>
-  </pageFields>
-  <dataFields count="2">
-    <dataField name="Sum of Value" fld="5" baseField="3" baseItem="0" numFmtId="3"/>
-    <dataField name="Average of Value" fld="5" subtotal="average" baseField="3" baseItem="19" numFmtId="3"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="G5:J7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="9">
@@ -35979,28 +35945,21 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="9">
-        <item m="1" x="5"/>
-        <item m="1" x="4"/>
-        <item m="1" x="2"/>
-        <item m="1" x="3"/>
-        <item m="1" x="6"/>
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="2">
+        <item x="0"/>
         <item x="1"/>
-        <item m="1" x="7"/>
-        <item x="0"/>
-        <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisPage" showAll="0">
       <items count="10">
         <item m="1" x="2"/>
+        <item m="1" x="8"/>
         <item m="1" x="7"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
         <item m="1" x="3"/>
         <item m="1" x="6"/>
-        <item m="1" x="8"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
         <item x="1"/>
         <item x="0"/>
         <item t="default"/>
@@ -36128,7 +36087,1327 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable12" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A5:D7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="9">
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="2"/>
+        <item m="1" x="3"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="2">
+        <item x="0"/>
+        <item x="1"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="10">
+        <item m="1" x="2"/>
+        <item m="1" x="8"/>
+        <item m="1" x="7"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item m="1" x="3"/>
+        <item m="1" x="6"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="29">
+        <item sd="0" m="1" x="19"/>
+        <item sd="0" m="1" x="17"/>
+        <item sd="0" m="1" x="20"/>
+        <item sd="0" m="1" x="23"/>
+        <item sd="0" m="1" x="7"/>
+        <item sd="0" m="1" x="12"/>
+        <item sd="0" m="1" x="25"/>
+        <item sd="0" m="1" x="14"/>
+        <item sd="0" m="1" x="13"/>
+        <item sd="0" m="1" x="22"/>
+        <item sd="0" x="0"/>
+        <item sd="0" m="1" x="3"/>
+        <item sd="0" m="1" x="6"/>
+        <item sd="0" m="1" x="4"/>
+        <item sd="0" m="1" x="8"/>
+        <item sd="0" m="1" x="5"/>
+        <item sd="0" m="1" x="10"/>
+        <item sd="0" m="1" x="16"/>
+        <item sd="0" m="1" x="21"/>
+        <item sd="0" m="1" x="27"/>
+        <item sd="0" m="1" x="11"/>
+        <item sd="0" m="1" x="15"/>
+        <item sd="0" m="1" x="18"/>
+        <item sd="0" m="1" x="2"/>
+        <item sd="0" m="1" x="26"/>
+        <item sd="0" m="1" x="24"/>
+        <item sd="0" m="1" x="9"/>
+        <item sd="0" x="1"/>
+        <item t="default" sd="0"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="35">
+        <item x="29"/>
+        <item x="31"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="23"/>
+        <item x="22"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="26"/>
+        <item x="25"/>
+        <item x="24"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="30"/>
+        <item x="32"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="11"/>
+        <item x="9"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="10"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="33"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="3"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x v="27"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="0" hier="-1"/>
+    <pageField fld="2" hier="-1"/>
+    <pageField fld="4" item="12" hier="-1"/>
+  </pageFields>
+  <dataFields count="3">
+    <dataField name="Max of Value" fld="5" subtotal="max" baseField="3" baseItem="19" numFmtId="165"/>
+    <dataField name="Average of Value" fld="5" subtotal="average" baseField="3" baseItem="19" numFmtId="165"/>
+    <dataField name="StdDev of Value" fld="5" subtotal="stdDev" baseField="3" baseItem="19" numFmtId="165"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable13" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="G5:J7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="9">
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="2"/>
+        <item m="1" x="3"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="2">
+        <item x="0"/>
+        <item x="1"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="10">
+        <item m="1" x="2"/>
+        <item m="1" x="8"/>
+        <item m="1" x="7"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item m="1" x="3"/>
+        <item m="1" x="6"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="29">
+        <item sd="0" m="1" x="19"/>
+        <item sd="0" m="1" x="17"/>
+        <item sd="0" m="1" x="20"/>
+        <item sd="0" m="1" x="23"/>
+        <item sd="0" m="1" x="7"/>
+        <item sd="0" m="1" x="12"/>
+        <item sd="0" m="1" x="25"/>
+        <item sd="0" m="1" x="14"/>
+        <item sd="0" m="1" x="13"/>
+        <item sd="0" m="1" x="22"/>
+        <item sd="0" x="0"/>
+        <item sd="0" m="1" x="3"/>
+        <item sd="0" m="1" x="6"/>
+        <item sd="0" m="1" x="4"/>
+        <item sd="0" m="1" x="8"/>
+        <item sd="0" m="1" x="5"/>
+        <item sd="0" m="1" x="10"/>
+        <item sd="0" m="1" x="16"/>
+        <item sd="0" m="1" x="21"/>
+        <item sd="0" m="1" x="27"/>
+        <item sd="0" m="1" x="11"/>
+        <item sd="0" m="1" x="15"/>
+        <item sd="0" m="1" x="18"/>
+        <item sd="0" m="1" x="2"/>
+        <item sd="0" m="1" x="26"/>
+        <item sd="0" m="1" x="24"/>
+        <item sd="0" m="1" x="9"/>
+        <item sd="0" x="1"/>
+        <item t="default" sd="0"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="35">
+        <item x="29"/>
+        <item x="31"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="23"/>
+        <item x="22"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="26"/>
+        <item x="25"/>
+        <item x="24"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="30"/>
+        <item x="32"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="11"/>
+        <item x="9"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="10"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="33"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="3"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x v="27"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="0" hier="-1"/>
+    <pageField fld="2" hier="-1"/>
+    <pageField fld="4" item="14" hier="-1"/>
+  </pageFields>
+  <dataFields count="3">
+    <dataField name="Max of Value" fld="5" subtotal="max" baseField="3" baseItem="19" numFmtId="165"/>
+    <dataField name="Average of Value" fld="5" subtotal="average" baseField="3" baseItem="19" numFmtId="165"/>
+    <dataField name="StdDev of Value" fld="5" subtotal="stdDev" baseField="3" baseItem="19" numFmtId="165"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A5:D7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="9">
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="2"/>
+        <item m="1" x="3"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="2">
+        <item x="0"/>
+        <item x="1"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="10">
+        <item m="1" x="2"/>
+        <item m="1" x="8"/>
+        <item m="1" x="7"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item m="1" x="3"/>
+        <item m="1" x="6"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="29">
+        <item sd="0" m="1" x="19"/>
+        <item sd="0" m="1" x="17"/>
+        <item sd="0" m="1" x="20"/>
+        <item sd="0" m="1" x="23"/>
+        <item sd="0" m="1" x="7"/>
+        <item sd="0" m="1" x="12"/>
+        <item sd="0" m="1" x="25"/>
+        <item sd="0" m="1" x="14"/>
+        <item sd="0" m="1" x="13"/>
+        <item sd="0" m="1" x="22"/>
+        <item sd="0" x="0"/>
+        <item sd="0" m="1" x="3"/>
+        <item sd="0" m="1" x="6"/>
+        <item sd="0" m="1" x="4"/>
+        <item sd="0" m="1" x="8"/>
+        <item sd="0" m="1" x="5"/>
+        <item sd="0" m="1" x="10"/>
+        <item sd="0" m="1" x="16"/>
+        <item sd="0" m="1" x="21"/>
+        <item sd="0" m="1" x="27"/>
+        <item sd="0" m="1" x="11"/>
+        <item sd="0" m="1" x="15"/>
+        <item sd="0" m="1" x="18"/>
+        <item sd="0" m="1" x="2"/>
+        <item sd="0" m="1" x="26"/>
+        <item sd="0" m="1" x="24"/>
+        <item sd="0" m="1" x="9"/>
+        <item sd="0" x="1"/>
+        <item t="default" sd="0"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="35">
+        <item x="29"/>
+        <item x="31"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="23"/>
+        <item x="22"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="26"/>
+        <item x="25"/>
+        <item x="24"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="30"/>
+        <item x="32"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="11"/>
+        <item x="9"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="10"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="33"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="3"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x v="27"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="0" hier="-1"/>
+    <pageField fld="2" hier="-1"/>
+    <pageField fld="4" item="27" hier="-1"/>
+  </pageFields>
+  <dataFields count="3">
+    <dataField name="Sum of Size in MB(Formatted)" fld="7" baseField="3" baseItem="0" numFmtId="4"/>
+    <dataField name="Average of Size in MB(Formatted)" fld="7" subtotal="average" baseField="3" baseItem="19" numFmtId="4"/>
+    <dataField name="StdDev of Size in MB(Formatted)" fld="7" subtotal="stdDev" baseField="3" baseItem="19" numFmtId="4"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="G6:J8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="9">
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="2"/>
+        <item m="1" x="3"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="2">
+        <item x="0"/>
+        <item x="1"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="10">
+        <item m="1" x="2"/>
+        <item m="1" x="8"/>
+        <item m="1" x="7"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item m="1" x="3"/>
+        <item m="1" x="6"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="29">
+        <item m="1" x="19"/>
+        <item m="1" x="17"/>
+        <item m="1" x="20"/>
+        <item m="1" x="23"/>
+        <item m="1" x="7"/>
+        <item m="1" x="12"/>
+        <item m="1" x="25"/>
+        <item m="1" x="14"/>
+        <item m="1" x="13"/>
+        <item m="1" x="22"/>
+        <item x="0"/>
+        <item m="1" x="3"/>
+        <item m="1" x="6"/>
+        <item m="1" x="4"/>
+        <item m="1" x="8"/>
+        <item m="1" x="5"/>
+        <item m="1" x="10"/>
+        <item m="1" x="16"/>
+        <item m="1" x="21"/>
+        <item m="1" x="27"/>
+        <item m="1" x="11"/>
+        <item m="1" x="15"/>
+        <item m="1" x="18"/>
+        <item m="1" x="2"/>
+        <item m="1" x="26"/>
+        <item m="1" x="24"/>
+        <item m="1" x="9"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="35">
+        <item x="29"/>
+        <item x="31"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="23"/>
+        <item x="22"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="26"/>
+        <item x="25"/>
+        <item x="24"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="30"/>
+        <item x="32"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="11"/>
+        <item x="9"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="10"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="33"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="0" hier="-1"/>
+    <pageField fld="2" hier="-1"/>
+    <pageField fld="4" item="27" hier="-1"/>
+    <pageField fld="3" hier="-1"/>
+  </pageFields>
+  <dataFields count="3">
+    <dataField name="Sum of Size in MB(Formatted)" fld="7" baseField="3" baseItem="0" numFmtId="4"/>
+    <dataField name="Average of Size in MB(Formatted)" fld="7" subtotal="average" baseField="3" baseItem="19" numFmtId="4"/>
+    <dataField name="StdDev of Size in MB(Formatted)" fld="7" subtotal="stdDev" baseField="3" baseItem="19" numFmtId="4"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="S4:T6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="9">
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="2"/>
+        <item m="1" x="3"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="2">
+        <item x="0"/>
+        <item x="1"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="35">
+        <item x="29"/>
+        <item x="31"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="23"/>
+        <item x="22"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="26"/>
+        <item x="25"/>
+        <item x="24"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="30"/>
+        <item x="32"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="11"/>
+        <item x="9"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="10"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="33"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="0" hier="-1"/>
+    <pageField fld="4" item="13" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Value" fld="5" baseField="3" baseItem="0" numFmtId="3"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="E5:G7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="9">
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="2"/>
+        <item m="1" x="3"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="2">
+        <item x="0"/>
+        <item x="1"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="10">
+        <item m="1" x="2"/>
+        <item m="1" x="8"/>
+        <item m="1" x="7"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item m="1" x="3"/>
+        <item m="1" x="6"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="29">
+        <item sd="0" m="1" x="19"/>
+        <item sd="0" m="1" x="17"/>
+        <item sd="0" m="1" x="20"/>
+        <item sd="0" m="1" x="23"/>
+        <item sd="0" m="1" x="7"/>
+        <item sd="0" m="1" x="12"/>
+        <item sd="0" m="1" x="25"/>
+        <item sd="0" m="1" x="14"/>
+        <item sd="0" m="1" x="13"/>
+        <item sd="0" m="1" x="22"/>
+        <item sd="0" x="0"/>
+        <item sd="0" m="1" x="3"/>
+        <item sd="0" m="1" x="6"/>
+        <item sd="0" m="1" x="4"/>
+        <item sd="0" m="1" x="8"/>
+        <item sd="0" m="1" x="5"/>
+        <item sd="0" m="1" x="10"/>
+        <item sd="0" m="1" x="16"/>
+        <item sd="0" m="1" x="21"/>
+        <item sd="0" m="1" x="27"/>
+        <item sd="0" m="1" x="11"/>
+        <item sd="0" m="1" x="15"/>
+        <item sd="0" m="1" x="18"/>
+        <item sd="0" m="1" x="2"/>
+        <item sd="0" m="1" x="26"/>
+        <item sd="0" m="1" x="24"/>
+        <item sd="0" m="1" x="9"/>
+        <item sd="0" x="1"/>
+        <item t="default" sd="0"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="35">
+        <item x="29"/>
+        <item x="31"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="23"/>
+        <item x="22"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="26"/>
+        <item x="25"/>
+        <item x="24"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="30"/>
+        <item x="32"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="11"/>
+        <item x="9"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="10"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="33"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="3"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x v="27"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="0" hier="-1"/>
+    <pageField fld="2" hier="-1"/>
+    <pageField fld="4" item="13" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name="Sum of Value" fld="5" baseField="3" baseItem="0" numFmtId="3"/>
+    <dataField name="Average of Value" fld="5" subtotal="average" baseField="3" baseItem="19" numFmtId="3"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A5:C7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="9">
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="2"/>
+        <item m="1" x="3"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="2">
+        <item x="0"/>
+        <item x="1"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="10">
+        <item m="1" x="2"/>
+        <item m="1" x="8"/>
+        <item m="1" x="7"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item m="1" x="3"/>
+        <item m="1" x="6"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="29">
+        <item sd="0" m="1" x="19"/>
+        <item sd="0" m="1" x="17"/>
+        <item sd="0" m="1" x="20"/>
+        <item sd="0" m="1" x="23"/>
+        <item sd="0" m="1" x="7"/>
+        <item sd="0" m="1" x="12"/>
+        <item sd="0" m="1" x="25"/>
+        <item sd="0" m="1" x="14"/>
+        <item sd="0" m="1" x="13"/>
+        <item sd="0" m="1" x="22"/>
+        <item sd="0" x="0"/>
+        <item sd="0" m="1" x="3"/>
+        <item sd="0" m="1" x="6"/>
+        <item sd="0" m="1" x="4"/>
+        <item sd="0" m="1" x="8"/>
+        <item sd="0" m="1" x="5"/>
+        <item sd="0" m="1" x="10"/>
+        <item sd="0" m="1" x="16"/>
+        <item sd="0" m="1" x="21"/>
+        <item sd="0" m="1" x="27"/>
+        <item sd="0" m="1" x="11"/>
+        <item sd="0" m="1" x="15"/>
+        <item sd="0" m="1" x="18"/>
+        <item sd="0" m="1" x="2"/>
+        <item sd="0" m="1" x="26"/>
+        <item sd="0" m="1" x="24"/>
+        <item sd="0" m="1" x="9"/>
+        <item sd="0" x="1"/>
+        <item t="default" sd="0"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="35">
+        <item x="29"/>
+        <item x="31"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="23"/>
+        <item x="22"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="26"/>
+        <item x="25"/>
+        <item x="24"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="30"/>
+        <item x="32"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="11"/>
+        <item x="9"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="10"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="33"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="3"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x v="27"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="0" hier="-1"/>
+    <pageField fld="2" hier="-1"/>
+    <pageField fld="4" item="11" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name="Sum of Value" fld="5" baseField="3" baseItem="0" numFmtId="3"/>
+    <dataField name="Average of Value" fld="5" subtotal="average" baseField="3" baseItem="19" numFmtId="3"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="P4:Q6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="9">
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="2"/>
+        <item m="1" x="3"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="2">
+        <item x="0"/>
+        <item x="1"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="35">
+        <item x="29"/>
+        <item x="31"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="23"/>
+        <item x="22"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="26"/>
+        <item x="25"/>
+        <item x="24"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="30"/>
+        <item x="32"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="11"/>
+        <item x="9"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="10"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="33"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="0" hier="-1"/>
+    <pageField fld="4" item="11" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Value" fld="5" baseField="3" baseItem="0" numFmtId="3"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="M3:N6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="9">
+    <pivotField axis="axisPage" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="2">
+        <item x="0"/>
+        <item x="1"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="0" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Dropped" fld="8" baseField="1" baseItem="0" numFmtId="3"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="I5:K7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="9">
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="2"/>
+        <item m="1" x="3"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="2">
+        <item x="0"/>
+        <item x="1"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="10">
+        <item m="1" x="2"/>
+        <item m="1" x="8"/>
+        <item m="1" x="7"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item m="1" x="3"/>
+        <item m="1" x="6"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="29">
+        <item sd="0" m="1" x="19"/>
+        <item sd="0" m="1" x="17"/>
+        <item sd="0" m="1" x="20"/>
+        <item sd="0" m="1" x="23"/>
+        <item sd="0" m="1" x="7"/>
+        <item sd="0" m="1" x="12"/>
+        <item sd="0" m="1" x="25"/>
+        <item sd="0" m="1" x="14"/>
+        <item sd="0" m="1" x="13"/>
+        <item sd="0" m="1" x="22"/>
+        <item sd="0" x="0"/>
+        <item sd="0" m="1" x="3"/>
+        <item sd="0" m="1" x="6"/>
+        <item sd="0" m="1" x="4"/>
+        <item sd="0" m="1" x="8"/>
+        <item sd="0" m="1" x="5"/>
+        <item sd="0" m="1" x="10"/>
+        <item sd="0" m="1" x="16"/>
+        <item sd="0" m="1" x="21"/>
+        <item sd="0" m="1" x="27"/>
+        <item sd="0" m="1" x="11"/>
+        <item sd="0" m="1" x="15"/>
+        <item sd="0" m="1" x="18"/>
+        <item sd="0" m="1" x="2"/>
+        <item sd="0" m="1" x="26"/>
+        <item sd="0" m="1" x="24"/>
+        <item sd="0" m="1" x="9"/>
+        <item sd="0" x="1"/>
+        <item t="default" sd="0"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="35">
+        <item x="29"/>
+        <item x="31"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="23"/>
+        <item x="22"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="26"/>
+        <item x="25"/>
+        <item x="24"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="30"/>
+        <item x="32"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="11"/>
+        <item x="9"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="10"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="33"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="3"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x v="27"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="0" hier="-1"/>
+    <pageField fld="2" hier="-1"/>
+    <pageField fld="4" item="16" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name="Sum of Value" fld="5" baseField="3" baseItem="0" numFmtId="3"/>
+    <dataField name="Average of Value" fld="5" subtotal="average" baseField="3" baseItem="19" numFmtId="3"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A5:D7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="9">
@@ -36141,28 +37420,21 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="9">
-        <item m="1" x="5"/>
-        <item m="1" x="4"/>
-        <item m="1" x="2"/>
-        <item m="1" x="3"/>
-        <item m="1" x="6"/>
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="2">
+        <item x="0"/>
         <item x="1"/>
-        <item m="1" x="7"/>
-        <item x="0"/>
-        <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisPage" showAll="0">
       <items count="10">
         <item m="1" x="2"/>
+        <item m="1" x="8"/>
         <item m="1" x="7"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
         <item m="1" x="3"/>
         <item m="1" x="6"/>
-        <item m="1" x="8"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
         <item x="1"/>
         <item x="0"/>
         <item t="default"/>
@@ -36290,7 +37562,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable11" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="M5:P7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="9">
@@ -36303,28 +37575,21 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="9">
-        <item m="1" x="5"/>
-        <item m="1" x="4"/>
-        <item m="1" x="2"/>
-        <item m="1" x="3"/>
-        <item m="1" x="6"/>
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="2">
+        <item x="0"/>
         <item x="1"/>
-        <item m="1" x="7"/>
-        <item x="0"/>
-        <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisPage" showAll="0">
       <items count="10">
         <item m="1" x="2"/>
+        <item m="1" x="8"/>
         <item m="1" x="7"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
         <item m="1" x="3"/>
         <item m="1" x="6"/>
-        <item m="1" x="8"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
         <item x="1"/>
         <item x="0"/>
         <item t="default"/>
@@ -36442,492 +37707,6 @@
     <dataField name="Sum of (Value)" fld="8" baseField="3" baseItem="0" numFmtId="3"/>
     <dataField name="Average of (Value)2" fld="8" subtotal="average" baseField="3" baseItem="4" numFmtId="3"/>
     <dataField name="StdDev of (Value)2" fld="8" subtotal="stdDev" baseField="3" baseItem="8" numFmtId="3"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable12" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A5:D7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="9">
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="2"/>
-        <item m="1" x="3"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="9">
-        <item m="1" x="5"/>
-        <item m="1" x="4"/>
-        <item m="1" x="2"/>
-        <item m="1" x="3"/>
-        <item m="1" x="6"/>
-        <item x="1"/>
-        <item m="1" x="7"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="10">
-        <item m="1" x="2"/>
-        <item m="1" x="7"/>
-        <item m="1" x="3"/>
-        <item m="1" x="6"/>
-        <item m="1" x="8"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="29">
-        <item sd="0" m="1" x="19"/>
-        <item sd="0" m="1" x="17"/>
-        <item sd="0" m="1" x="20"/>
-        <item sd="0" m="1" x="23"/>
-        <item sd="0" m="1" x="7"/>
-        <item sd="0" m="1" x="12"/>
-        <item sd="0" m="1" x="25"/>
-        <item sd="0" m="1" x="14"/>
-        <item sd="0" m="1" x="13"/>
-        <item sd="0" m="1" x="22"/>
-        <item sd="0" x="0"/>
-        <item sd="0" m="1" x="3"/>
-        <item sd="0" m="1" x="6"/>
-        <item sd="0" m="1" x="4"/>
-        <item sd="0" m="1" x="8"/>
-        <item sd="0" m="1" x="5"/>
-        <item sd="0" m="1" x="10"/>
-        <item sd="0" m="1" x="16"/>
-        <item sd="0" m="1" x="21"/>
-        <item sd="0" m="1" x="27"/>
-        <item sd="0" m="1" x="11"/>
-        <item sd="0" m="1" x="15"/>
-        <item sd="0" m="1" x="18"/>
-        <item sd="0" m="1" x="2"/>
-        <item sd="0" m="1" x="26"/>
-        <item sd="0" m="1" x="24"/>
-        <item sd="0" m="1" x="9"/>
-        <item sd="0" x="1"/>
-        <item t="default" sd="0"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="35">
-        <item x="29"/>
-        <item x="31"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="23"/>
-        <item x="22"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="26"/>
-        <item x="25"/>
-        <item x="24"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="30"/>
-        <item x="32"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="11"/>
-        <item x="9"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="10"/>
-        <item x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="33"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="3"/>
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x v="27"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="0" hier="-1"/>
-    <pageField fld="2" hier="-1"/>
-    <pageField fld="4" item="12" hier="-1"/>
-  </pageFields>
-  <dataFields count="3">
-    <dataField name="Max of Value" fld="5" subtotal="max" baseField="3" baseItem="19" numFmtId="165"/>
-    <dataField name="Average of Value" fld="5" subtotal="average" baseField="3" baseItem="19" numFmtId="165"/>
-    <dataField name="StdDev of Value" fld="5" subtotal="stdDev" baseField="3" baseItem="19" numFmtId="165"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable13" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="G5:J7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="9">
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="2"/>
-        <item m="1" x="3"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="9">
-        <item m="1" x="5"/>
-        <item m="1" x="4"/>
-        <item m="1" x="2"/>
-        <item m="1" x="3"/>
-        <item m="1" x="6"/>
-        <item x="1"/>
-        <item m="1" x="7"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="10">
-        <item m="1" x="2"/>
-        <item m="1" x="7"/>
-        <item m="1" x="3"/>
-        <item m="1" x="6"/>
-        <item m="1" x="8"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="29">
-        <item sd="0" m="1" x="19"/>
-        <item sd="0" m="1" x="17"/>
-        <item sd="0" m="1" x="20"/>
-        <item sd="0" m="1" x="23"/>
-        <item sd="0" m="1" x="7"/>
-        <item sd="0" m="1" x="12"/>
-        <item sd="0" m="1" x="25"/>
-        <item sd="0" m="1" x="14"/>
-        <item sd="0" m="1" x="13"/>
-        <item sd="0" m="1" x="22"/>
-        <item sd="0" x="0"/>
-        <item sd="0" m="1" x="3"/>
-        <item sd="0" m="1" x="6"/>
-        <item sd="0" m="1" x="4"/>
-        <item sd="0" m="1" x="8"/>
-        <item sd="0" m="1" x="5"/>
-        <item sd="0" m="1" x="10"/>
-        <item sd="0" m="1" x="16"/>
-        <item sd="0" m="1" x="21"/>
-        <item sd="0" m="1" x="27"/>
-        <item sd="0" m="1" x="11"/>
-        <item sd="0" m="1" x="15"/>
-        <item sd="0" m="1" x="18"/>
-        <item sd="0" m="1" x="2"/>
-        <item sd="0" m="1" x="26"/>
-        <item sd="0" m="1" x="24"/>
-        <item sd="0" m="1" x="9"/>
-        <item sd="0" x="1"/>
-        <item t="default" sd="0"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="35">
-        <item x="29"/>
-        <item x="31"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="23"/>
-        <item x="22"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="26"/>
-        <item x="25"/>
-        <item x="24"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="30"/>
-        <item x="32"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="11"/>
-        <item x="9"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="10"/>
-        <item x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="33"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="3"/>
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x v="27"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="0" hier="-1"/>
-    <pageField fld="2" hier="-1"/>
-    <pageField fld="4" item="14" hier="-1"/>
-  </pageFields>
-  <dataFields count="3">
-    <dataField name="Max of Value" fld="5" subtotal="max" baseField="3" baseItem="19" numFmtId="165"/>
-    <dataField name="Average of Value" fld="5" subtotal="average" baseField="3" baseItem="19" numFmtId="165"/>
-    <dataField name="StdDev of Value" fld="5" subtotal="stdDev" baseField="3" baseItem="19" numFmtId="165"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A5:D7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="9">
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="2"/>
-        <item m="1" x="3"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="9">
-        <item m="1" x="5"/>
-        <item m="1" x="4"/>
-        <item m="1" x="2"/>
-        <item m="1" x="3"/>
-        <item m="1" x="6"/>
-        <item x="1"/>
-        <item m="1" x="7"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="10">
-        <item m="1" x="2"/>
-        <item m="1" x="7"/>
-        <item m="1" x="3"/>
-        <item m="1" x="6"/>
-        <item m="1" x="8"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="29">
-        <item sd="0" m="1" x="19"/>
-        <item sd="0" m="1" x="17"/>
-        <item sd="0" m="1" x="20"/>
-        <item sd="0" m="1" x="23"/>
-        <item sd="0" m="1" x="7"/>
-        <item sd="0" m="1" x="12"/>
-        <item sd="0" m="1" x="25"/>
-        <item sd="0" m="1" x="14"/>
-        <item sd="0" m="1" x="13"/>
-        <item sd="0" m="1" x="22"/>
-        <item sd="0" x="0"/>
-        <item sd="0" m="1" x="3"/>
-        <item sd="0" m="1" x="6"/>
-        <item sd="0" m="1" x="4"/>
-        <item sd="0" m="1" x="8"/>
-        <item sd="0" m="1" x="5"/>
-        <item sd="0" m="1" x="10"/>
-        <item sd="0" m="1" x="16"/>
-        <item sd="0" m="1" x="21"/>
-        <item sd="0" m="1" x="27"/>
-        <item sd="0" m="1" x="11"/>
-        <item sd="0" m="1" x="15"/>
-        <item sd="0" m="1" x="18"/>
-        <item sd="0" m="1" x="2"/>
-        <item sd="0" m="1" x="26"/>
-        <item sd="0" m="1" x="24"/>
-        <item sd="0" m="1" x="9"/>
-        <item sd="0" x="1"/>
-        <item t="default" sd="0"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="35">
-        <item x="29"/>
-        <item x="31"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="23"/>
-        <item x="22"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="26"/>
-        <item x="25"/>
-        <item x="24"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="30"/>
-        <item x="32"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="11"/>
-        <item x="9"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="10"/>
-        <item x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="33"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="3"/>
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x v="27"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="0" hier="-1"/>
-    <pageField fld="2" hier="-1"/>
-    <pageField fld="4" item="27" hier="-1"/>
-  </pageFields>
-  <dataFields count="3">
-    <dataField name="Sum of Size in MB(Formatted)" fld="7" baseField="3" baseItem="0" numFmtId="4"/>
-    <dataField name="Average of Size in MB(Formatted)" fld="7" subtotal="average" baseField="3" baseItem="19" numFmtId="4"/>
-    <dataField name="StdDev of Size in MB(Formatted)" fld="7" subtotal="stdDev" baseField="3" baseItem="19" numFmtId="4"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -37201,7 +37980,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:W7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
@@ -37212,107 +37991,213 @@
     <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" customWidth="1"/>
     <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.42578125" customWidth="1"/>
     <col min="7" max="7" width="16.28515625" customWidth="1"/>
     <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="48.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.140625" customWidth="1"/>
     <col min="11" max="11" width="16.28515625" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" customWidth="1"/>
+    <col min="14" max="14" width="15.42578125" customWidth="1"/>
+    <col min="16" max="16" width="13.140625" customWidth="1"/>
+    <col min="17" max="17" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.28515625" customWidth="1"/>
+    <col min="19" max="19" width="13.140625" customWidth="1"/>
+    <col min="20" max="20" width="18.42578125" customWidth="1"/>
+    <col min="22" max="22" width="13.140625" customWidth="1"/>
+    <col min="23" max="23" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:23">
       <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="W1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>9</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="T2" t="s">
+        <v>11</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="W2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>1</v>
+      <c r="N3" t="s">
+        <v>100</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="4" spans="1:23">
+      <c r="M4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="N4" s="6">
+        <v>5221</v>
+      </c>
+      <c r="P4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>1</v>
+      <c r="Q4" t="s">
+        <v>19</v>
       </c>
-      <c r="J1" t="s">
+      <c r="S4" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="4" t="s">
-        <v>2</v>
+      <c r="T4" t="s">
+        <v>19</v>
       </c>
-      <c r="B2" t="s">
+      <c r="V4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>2</v>
+      <c r="W4" t="s">
+        <v>19</v>
       </c>
-      <c r="F2" t="s">
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>2</v>
+      <c r="B5" t="s">
+        <v>19</v>
       </c>
-      <c r="J2" t="s">
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="4" t="s">
-        <v>4</v>
+      <c r="F5" t="s">
+        <v>19</v>
       </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="G5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" t="s">
-        <v>21</v>
+      <c r="I5" s="4" t="s">
+        <v>17</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>18</v>
+      <c r="J5" t="s">
+        <v>19</v>
       </c>
-      <c r="F5" t="s">
+      <c r="K5" t="s">
         <v>20</v>
       </c>
-      <c r="G5" t="s">
-        <v>21</v>
+      <c r="M5" s="5" t="s">
+        <v>99</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>18</v>
+      <c r="N5" s="6"/>
+      <c r="P5" s="5" t="s">
+        <v>60</v>
       </c>
-      <c r="J5" t="s">
-        <v>20</v>
+      <c r="Q5" s="6">
+        <v>23</v>
       </c>
-      <c r="K5" t="s">
-        <v>21</v>
+      <c r="S5" s="5" t="s">
+        <v>60</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="T5" s="6">
+        <v>0</v>
+      </c>
+      <c r="V5" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="W5" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6" s="6">
         <v>23</v>
@@ -37321,7 +38206,7 @@
         <v>23</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F6" s="6">
         <v>0</v>
@@ -37330,7 +38215,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J6" s="6">
         <v>0</v>
@@ -37338,10 +38223,34 @@
       <c r="K6" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="M6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6" s="6">
+        <v>5221</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>23</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="T6" s="6">
+        <v>0</v>
+      </c>
+      <c r="V6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="W6" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="6">
         <v>23</v>
@@ -37350,7 +38259,7 @@
         <v>23</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F7" s="6">
         <v>0</v>
@@ -37359,7 +38268,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J7" s="6">
         <v>0</v>
@@ -37370,7 +38279,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -37379,7 +38288,7 @@
   <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -37402,105 +38311,105 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>1</v>
+      <c r="B5" t="s">
+        <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>1</v>
+      <c r="H5" t="s">
+        <v>22</v>
       </c>
-      <c r="N1" t="s">
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="A2" s="4" t="s">
-        <v>2</v>
+      <c r="N5" t="s">
+        <v>26</v>
       </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="N2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
-      <c r="A3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="N3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="A5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" t="s">
-        <v>25</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>27</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>28</v>
       </c>
-      <c r="P5" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6" s="7">
         <v>0</v>
@@ -37516,7 +38425,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -37528,7 +38437,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N6" s="6">
         <v>0</v>
@@ -37546,7 +38455,7 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="7">
         <v>0</v>
@@ -37558,7 +38467,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -37570,7 +38479,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N7" s="6">
         <v>0</v>
@@ -37596,7 +38505,19 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G6" sqref="G6:J6"/>
+      <pivotSelection pane="bottomRight" showHeader="1" extendable="1" max="2" activeRow="5" activeCol="6" click="1" r:id="rId2">
+        <pivotArea dataOnly="0" fieldPosition="0">
+          <references count="2">
+            <reference field="3" count="1">
+              <x v="27"/>
+            </reference>
+            <reference field="4" count="1" selected="0">
+              <x v="14"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotSelection>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -37613,75 +38534,75 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>1</v>
+      <c r="B5" t="s">
+        <v>29</v>
       </c>
-      <c r="H1" t="s">
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="4" t="s">
-        <v>2</v>
+      <c r="H5" t="s">
+        <v>29</v>
       </c>
-      <c r="B2" t="s">
-        <v>17</v>
+      <c r="I5" t="s">
+        <v>20</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="J5" t="s">
         <v>21</v>
       </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6" s="10">
         <v>2.5000000000000001E-2</v>
@@ -37693,7 +38614,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
@@ -37701,7 +38622,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="10">
         <v>2.5000000000000001E-2</v>
@@ -37713,7 +38634,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
@@ -37730,7 +38651,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -37748,76 +38669,76 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="9"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="9"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="9"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="G4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="9"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" s="9"/>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="9"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="9"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="G4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="9"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="K5" s="9"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6" s="7">
         <v>0</v>
@@ -37833,22 +38754,22 @@
         <v>0</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" t="s">
         <v>24</v>
       </c>
-      <c r="J6" t="s">
-        <v>25</v>
-      </c>
       <c r="K6" s="9"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="7">
         <v>0</v>
@@ -37860,7 +38781,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -37875,7 +38796,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="G8" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -37927,7 +38848,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -37944,45 +38865,45 @@
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1">
       <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="I1" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F2">
         <v>25341</v>
@@ -37994,22 +38915,22 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F3">
         <v>0.26593476974073632</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I3">
         <f>IF(F3&lt;0, 0, F3)</f>
@@ -38018,16 +38939,16 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F4">
         <v>43066695</v>
@@ -38039,22 +38960,22 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F5">
         <v>1.0740350820976626E-2</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I5">
         <f t="shared" si="0"/>
@@ -38063,16 +38984,16 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -38084,19 +39005,19 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" t="s">
         <v>61</v>
       </c>
-      <c r="C7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" t="s">
-        <v>62</v>
-      </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -38108,19 +39029,19 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" t="s">
         <v>61</v>
       </c>
-      <c r="C8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" t="s">
-        <v>62</v>
-      </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -38135,19 +39056,19 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" t="s">
         <v>61</v>
       </c>
-      <c r="C9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" t="s">
-        <v>62</v>
-      </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -38162,19 +39083,19 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" t="s">
         <v>61</v>
       </c>
-      <c r="C10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" t="s">
-        <v>62</v>
-      </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -38189,19 +39110,19 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" t="s">
         <v>61</v>
       </c>
-      <c r="C11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" t="s">
-        <v>62</v>
-      </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -38216,19 +39137,19 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" t="s">
         <v>61</v>
       </c>
-      <c r="C12" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" t="s">
-        <v>62</v>
-      </c>
       <c r="E12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -38240,19 +39161,19 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" t="s">
         <v>61</v>
       </c>
-      <c r="C13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" t="s">
-        <v>62</v>
-      </c>
       <c r="E13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F13">
         <v>-1</v>
@@ -38264,19 +39185,19 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" t="s">
         <v>61</v>
       </c>
-      <c r="C14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" t="s">
-        <v>62</v>
-      </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -38288,19 +39209,19 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" t="s">
         <v>61</v>
       </c>
-      <c r="C15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" t="s">
-        <v>62</v>
-      </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -38315,19 +39236,19 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" t="s">
         <v>61</v>
       </c>
-      <c r="C16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" t="s">
-        <v>62</v>
-      </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -38342,19 +39263,19 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" t="s">
         <v>61</v>
       </c>
-      <c r="C17" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" t="s">
-        <v>62</v>
-      </c>
       <c r="E17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -38366,19 +39287,19 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" t="s">
         <v>61</v>
       </c>
-      <c r="C18" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" t="s">
-        <v>62</v>
-      </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F18">
         <v>23</v>
@@ -38390,25 +39311,25 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" t="s">
         <v>61</v>
       </c>
-      <c r="C19" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" t="s">
-        <v>62</v>
-      </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F19">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I19">
         <f t="shared" si="0"/>
@@ -38417,19 +39338,19 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" t="s">
         <v>61</v>
       </c>
-      <c r="C20" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" t="s">
-        <v>62</v>
-      </c>
       <c r="E20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -38441,22 +39362,22 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" t="s">
         <v>61</v>
       </c>
-      <c r="C21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" t="s">
-        <v>62</v>
-      </c>
       <c r="E21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I21">
         <f t="shared" si="0"/>
@@ -38465,19 +39386,19 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" t="s">
         <v>61</v>
       </c>
-      <c r="C22" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" t="s">
-        <v>62</v>
-      </c>
       <c r="E22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -38489,19 +39410,19 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" t="s">
         <v>61</v>
       </c>
-      <c r="C23" t="s">
-        <v>60</v>
-      </c>
-      <c r="D23" t="s">
-        <v>62</v>
-      </c>
       <c r="E23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -38513,19 +39434,19 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" t="s">
         <v>61</v>
       </c>
-      <c r="C24" t="s">
-        <v>60</v>
-      </c>
-      <c r="D24" t="s">
-        <v>62</v>
-      </c>
       <c r="E24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -38537,19 +39458,19 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" t="s">
         <v>61</v>
       </c>
-      <c r="C25" t="s">
-        <v>60</v>
-      </c>
-      <c r="D25" t="s">
-        <v>62</v>
-      </c>
       <c r="E25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -38564,19 +39485,19 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" t="s">
         <v>61</v>
       </c>
-      <c r="C26" t="s">
-        <v>60</v>
-      </c>
-      <c r="D26" t="s">
-        <v>62</v>
-      </c>
       <c r="E26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -38591,19 +39512,19 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" t="s">
         <v>61</v>
       </c>
-      <c r="C27" t="s">
-        <v>60</v>
-      </c>
-      <c r="D27" t="s">
-        <v>62</v>
-      </c>
       <c r="E27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -38618,19 +39539,19 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" t="s">
         <v>61</v>
       </c>
-      <c r="C28" t="s">
-        <v>60</v>
-      </c>
-      <c r="D28" t="s">
-        <v>62</v>
-      </c>
       <c r="E28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -38645,19 +39566,19 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" t="s">
         <v>61</v>
       </c>
-      <c r="C29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D29" t="s">
-        <v>62</v>
-      </c>
       <c r="E29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -38672,19 +39593,19 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" t="s">
         <v>61</v>
       </c>
-      <c r="C30" t="s">
-        <v>60</v>
-      </c>
-      <c r="D30" t="s">
-        <v>62</v>
-      </c>
       <c r="E30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -38699,19 +39620,19 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B31" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" t="s">
         <v>61</v>
       </c>
-      <c r="C31" t="s">
-        <v>60</v>
-      </c>
-      <c r="D31" t="s">
-        <v>62</v>
-      </c>
       <c r="E31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -38726,19 +39647,19 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" t="s">
         <v>61</v>
       </c>
-      <c r="C32" t="s">
-        <v>60</v>
-      </c>
-      <c r="D32" t="s">
-        <v>62</v>
-      </c>
       <c r="E32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -38750,19 +39671,19 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33" t="s">
         <v>61</v>
       </c>
-      <c r="C33" t="s">
-        <v>60</v>
-      </c>
-      <c r="D33" t="s">
-        <v>62</v>
-      </c>
       <c r="E33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -38774,19 +39695,19 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B34" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" t="s">
         <v>61</v>
       </c>
-      <c r="C34" t="s">
-        <v>60</v>
-      </c>
-      <c r="D34" t="s">
-        <v>62</v>
-      </c>
       <c r="E34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -38798,19 +39719,19 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B35" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" t="s">
+        <v>59</v>
+      </c>
+      <c r="D35" t="s">
         <v>61</v>
       </c>
-      <c r="C35" t="s">
-        <v>60</v>
-      </c>
-      <c r="D35" t="s">
-        <v>62</v>
-      </c>
       <c r="E35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -73311,4 +74232,793 @@
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="12">
+        <v>0</v>
+      </c>
+      <c r="E2" s="12">
+        <v>0</v>
+      </c>
+      <c r="F2" s="12">
+        <v>346708473</v>
+      </c>
+      <c r="G2" s="12">
+        <v>0</v>
+      </c>
+      <c r="H2" s="12">
+        <v>0</v>
+      </c>
+      <c r="I2" s="12"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="12">
+        <v>0</v>
+      </c>
+      <c r="E3" s="12">
+        <v>0</v>
+      </c>
+      <c r="F3" s="12">
+        <v>9373164</v>
+      </c>
+      <c r="G3" s="12">
+        <v>0</v>
+      </c>
+      <c r="H3" s="12">
+        <v>0</v>
+      </c>
+      <c r="I3" s="12"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="12">
+        <v>0</v>
+      </c>
+      <c r="E4" s="12">
+        <v>0</v>
+      </c>
+      <c r="F4" s="12">
+        <v>397905909</v>
+      </c>
+      <c r="G4" s="12">
+        <v>0</v>
+      </c>
+      <c r="H4" s="12">
+        <v>0</v>
+      </c>
+      <c r="I4" s="12"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="12">
+        <v>0</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0</v>
+      </c>
+      <c r="F5" s="12">
+        <v>14840</v>
+      </c>
+      <c r="G5" s="12">
+        <v>0</v>
+      </c>
+      <c r="H5" s="12">
+        <v>0</v>
+      </c>
+      <c r="I5" s="12"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="12">
+        <v>0</v>
+      </c>
+      <c r="E6" s="12">
+        <v>0</v>
+      </c>
+      <c r="F6" s="12">
+        <v>0</v>
+      </c>
+      <c r="G6" s="12">
+        <v>0</v>
+      </c>
+      <c r="H6" s="12">
+        <v>0</v>
+      </c>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="12">
+        <v>0</v>
+      </c>
+      <c r="E7" s="12">
+        <v>0</v>
+      </c>
+      <c r="F7" s="12">
+        <v>0</v>
+      </c>
+      <c r="G7" s="12">
+        <v>0</v>
+      </c>
+      <c r="H7" s="12">
+        <v>0</v>
+      </c>
+      <c r="I7" s="12"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="12">
+        <v>0</v>
+      </c>
+      <c r="E8" s="12">
+        <v>0</v>
+      </c>
+      <c r="F8" s="12">
+        <v>3728</v>
+      </c>
+      <c r="G8" s="12">
+        <v>0</v>
+      </c>
+      <c r="H8" s="12">
+        <v>0</v>
+      </c>
+      <c r="I8" s="12"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="12">
+        <v>0</v>
+      </c>
+      <c r="E9" s="12">
+        <v>1</v>
+      </c>
+      <c r="F9" s="12">
+        <v>8237</v>
+      </c>
+      <c r="G9" s="12">
+        <v>0</v>
+      </c>
+      <c r="H9" s="12">
+        <v>0</v>
+      </c>
+      <c r="I9" s="12"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="12">
+        <v>0</v>
+      </c>
+      <c r="E10" s="12">
+        <v>0</v>
+      </c>
+      <c r="F10" s="12">
+        <v>9047891</v>
+      </c>
+      <c r="G10" s="12">
+        <v>0</v>
+      </c>
+      <c r="H10" s="12">
+        <v>0</v>
+      </c>
+      <c r="I10" s="12"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="12">
+        <v>0</v>
+      </c>
+      <c r="E11" s="12">
+        <v>0</v>
+      </c>
+      <c r="F11" s="12">
+        <v>0</v>
+      </c>
+      <c r="G11" s="12">
+        <v>0</v>
+      </c>
+      <c r="H11" s="12">
+        <v>0</v>
+      </c>
+      <c r="I11" s="12"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0</v>
+      </c>
+      <c r="F12" s="12">
+        <v>126</v>
+      </c>
+      <c r="G12" s="12">
+        <v>0</v>
+      </c>
+      <c r="H12" s="12">
+        <v>0</v>
+      </c>
+      <c r="I12" s="12"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="12">
+        <v>0</v>
+      </c>
+      <c r="E13" s="12">
+        <v>0</v>
+      </c>
+      <c r="F13" s="12">
+        <v>0</v>
+      </c>
+      <c r="G13" s="12">
+        <v>0</v>
+      </c>
+      <c r="H13" s="12">
+        <v>0</v>
+      </c>
+      <c r="I13" s="12"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="12">
+        <v>0</v>
+      </c>
+      <c r="E14" s="12">
+        <v>0</v>
+      </c>
+      <c r="F14" s="12">
+        <v>2646529</v>
+      </c>
+      <c r="G14" s="12">
+        <v>0</v>
+      </c>
+      <c r="H14" s="12">
+        <v>0</v>
+      </c>
+      <c r="I14" s="12"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="12">
+        <v>0</v>
+      </c>
+      <c r="E15" s="12">
+        <v>0</v>
+      </c>
+      <c r="F15" s="12">
+        <v>36102</v>
+      </c>
+      <c r="G15" s="12">
+        <v>0</v>
+      </c>
+      <c r="H15" s="12">
+        <v>0</v>
+      </c>
+      <c r="I15" s="12"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="12">
+        <v>0</v>
+      </c>
+      <c r="E16" s="12">
+        <v>0</v>
+      </c>
+      <c r="F16" s="12">
+        <v>269</v>
+      </c>
+      <c r="G16" s="12">
+        <v>0</v>
+      </c>
+      <c r="H16" s="12">
+        <v>0</v>
+      </c>
+      <c r="I16" s="12"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="12">
+        <v>0</v>
+      </c>
+      <c r="E17" s="12">
+        <v>0</v>
+      </c>
+      <c r="F17" s="12">
+        <v>305803</v>
+      </c>
+      <c r="G17" s="12">
+        <v>0</v>
+      </c>
+      <c r="H17" s="12">
+        <v>0</v>
+      </c>
+      <c r="I17" s="12"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="12">
+        <v>0</v>
+      </c>
+      <c r="E18" s="12">
+        <v>0</v>
+      </c>
+      <c r="F18" s="12">
+        <v>51</v>
+      </c>
+      <c r="G18" s="12">
+        <v>0</v>
+      </c>
+      <c r="H18" s="12">
+        <v>0</v>
+      </c>
+      <c r="I18" s="12"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" s="12">
+        <v>0</v>
+      </c>
+      <c r="E19" s="12">
+        <v>0</v>
+      </c>
+      <c r="F19" s="12">
+        <v>0</v>
+      </c>
+      <c r="G19" s="12">
+        <v>0</v>
+      </c>
+      <c r="H19" s="12">
+        <v>0</v>
+      </c>
+      <c r="I19" s="12"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="12">
+        <v>0</v>
+      </c>
+      <c r="E20" s="12">
+        <v>0</v>
+      </c>
+      <c r="F20" s="12">
+        <v>94410</v>
+      </c>
+      <c r="G20" s="12">
+        <v>0</v>
+      </c>
+      <c r="H20" s="12">
+        <v>0</v>
+      </c>
+      <c r="I20" s="12"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" s="12">
+        <v>0</v>
+      </c>
+      <c r="E21" s="12">
+        <v>0</v>
+      </c>
+      <c r="F21" s="12">
+        <v>174045</v>
+      </c>
+      <c r="G21" s="12">
+        <v>0</v>
+      </c>
+      <c r="H21" s="12">
+        <v>0</v>
+      </c>
+      <c r="I21" s="12"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" s="12">
+        <v>0</v>
+      </c>
+      <c r="E22" s="12">
+        <v>0</v>
+      </c>
+      <c r="F22" s="12">
+        <v>94416</v>
+      </c>
+      <c r="G22" s="12">
+        <v>0</v>
+      </c>
+      <c r="H22" s="12">
+        <v>0</v>
+      </c>
+      <c r="I22" s="12"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12">
+        <v>4670</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/LinqPad/dseTemplate.xlsx
+++ b/LinqPad/dseTemplate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richa\Documents\LINQPad Queries\DataStax\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\richard.andersen\Documents\LINQPad Queries\DataStax\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,10 +24,10 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">CFStats!$B$1:$I$13121</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId9"/>
-    <pivotCache cacheId="12" r:id="rId10"/>
+    <pivotCache cacheId="0" r:id="rId9"/>
+    <pivotCache cacheId="1" r:id="rId10"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -640,7 +640,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="6">
     <numFmt numFmtId="164" formatCode="#,###,###,##0"/>
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
@@ -864,46 +864,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
+  <dxfs count="13">
     <dxf>
       <alignment wrapText="1" readingOrder="0"/>
     </dxf>
@@ -39656,8 +39617,114 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable9" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="J6:L8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="AH5:AI7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="10">
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="2">
+        <item x="0"/>
+        <item x="1"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="47">
+        <item x="29"/>
+        <item x="31"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="23"/>
+        <item x="22"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="26"/>
+        <item x="25"/>
+        <item x="24"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="30"/>
+        <item x="32"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="11"/>
+        <item x="9"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="10"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="45"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="5" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Value" fld="6" baseField="3" baseItem="0" numFmtId="3"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="T6:V8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="10">
     <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisPage" showAll="0">
@@ -39769,10 +39836,10 @@
   <pageFields count="3">
     <pageField fld="1" hier="-1"/>
     <pageField fld="3" hier="-1"/>
-    <pageField fld="5" item="40" hier="-1"/>
+    <pageField fld="5" item="16" hier="-1"/>
   </pageFields>
   <dataFields count="2">
-    <dataField name="Max of Value" fld="6" subtotal="max" baseField="3" baseItem="27" numFmtId="3"/>
+    <dataField name="Sum of Value" fld="6" baseField="3" baseItem="0" numFmtId="3"/>
     <dataField name="Average of Value" fld="6" subtotal="average" baseField="3" baseItem="19" numFmtId="3"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
@@ -39784,67 +39851,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="Y4:Z7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="11">
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
-      <items count="2">
-        <item x="0"/>
-        <item x="1"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Dropped" fld="9" baseField="1" baseItem="0" numFmtId="3"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="N6:P8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="10">
     <pivotField showAll="0" defaultSubtotal="0"/>
@@ -39964,7 +39972,7 @@
     <dataField name="Average of Size in MB(Formatted)" fld="8" subtotal="average" baseField="3" baseItem="19" numFmtId="4"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="18">
+    <format dxfId="5">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -39973,7 +39981,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="17">
+    <format dxfId="4">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -39993,7 +40001,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="J6:L8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="10">
     <pivotField showAll="0" defaultSubtotal="0"/>
@@ -40113,7 +40121,7 @@
     <dataField name="Average of Size in MB(Formatted)" fld="8" subtotal="average" baseField="3" baseItem="19" numFmtId="4"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="20">
+    <format dxfId="7">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -40122,7 +40130,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="19">
+    <format dxfId="6">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -40142,7 +40150,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable13" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable13" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="D6:E8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="10">
     <pivotField showAll="0" defaultSubtotal="0"/>
@@ -40253,13 +40261,13 @@
     <dataField name="Sum of Value" fld="6" baseField="3" baseItem="27" numFmtId="3"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="23">
+    <format dxfId="10">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="22">
+    <format dxfId="9">
       <pivotArea dataOnly="0" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="21">
+    <format dxfId="8">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -40279,7 +40287,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable12" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable12" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="G6:H8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="10">
     <pivotField showAll="0" defaultSubtotal="0"/>
@@ -40390,7 +40398,7 @@
     <dataField name="Average of Size in MB(Formatted)" fld="8" subtotal="average" baseField="3" baseItem="27" numFmtId="4"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="24">
+    <format dxfId="11">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -40404,7 +40412,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable10" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable10" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A6:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="10">
     <pivotField showAll="0" defaultSubtotal="0"/>
@@ -40515,7 +40523,7 @@
     <dataField name="Max of Size in MB(Formatted)" fld="8" subtotal="max" baseField="3" baseItem="19" numFmtId="4"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="25">
+    <format dxfId="12">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -40535,7 +40543,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable11" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable11" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="R6:U8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="10">
     <pivotField showAll="0" defaultSubtotal="0"/>
@@ -40668,7 +40676,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable13" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable13" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="F6:H8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="10">
     <pivotField showAll="0" defaultSubtotal="0"/>
@@ -40797,7 +40805,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable14" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable14" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="J6:L8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="10">
     <pivotField showAll="0" defaultSubtotal="0"/>
@@ -40926,547 +40934,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable19" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="W5:X7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="11">
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="36">
-        <item x="23"/>
-        <item x="6"/>
-        <item x="15"/>
-        <item x="26"/>
-        <item x="9"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="25"/>
-        <item x="4"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="30"/>
-        <item x="8"/>
-        <item x="7"/>
-        <item x="10"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="14"/>
-        <item x="5"/>
-        <item x="24"/>
-        <item x="0"/>
-        <item x="28"/>
-        <item x="16"/>
-        <item x="22"/>
-        <item x="21"/>
-        <item x="29"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="27"/>
-        <item x="2"/>
-        <item x="17"/>
-        <item x="13"/>
-        <item x="34"/>
-        <item x="33"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="3" item="34" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Completed" fld="6" baseField="1" baseItem="0" numFmtId="3"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="AB5:AC7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="10">
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
-      <items count="2">
-        <item x="0"/>
-        <item x="1"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="47">
-        <item x="29"/>
-        <item x="31"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="23"/>
-        <item x="22"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="26"/>
-        <item x="25"/>
-        <item x="24"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="30"/>
-        <item x="32"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="11"/>
-        <item x="9"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="10"/>
-        <item x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="45"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="5" item="11" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Value" fld="6" baseField="3" baseItem="0" numFmtId="3"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable20.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable16" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="T5:U7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="11">
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="36">
-        <item x="23"/>
-        <item x="6"/>
-        <item x="15"/>
-        <item x="26"/>
-        <item x="9"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="25"/>
-        <item x="4"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="30"/>
-        <item x="8"/>
-        <item x="7"/>
-        <item x="10"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="14"/>
-        <item x="5"/>
-        <item x="24"/>
-        <item x="0"/>
-        <item x="28"/>
-        <item x="16"/>
-        <item x="22"/>
-        <item x="21"/>
-        <item x="29"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="27"/>
-        <item x="2"/>
-        <item x="17"/>
-        <item x="13"/>
-        <item x="34"/>
-        <item x="33"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="3" item="9" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Max of Latency (ms)" fld="10" subtotal="max" baseField="1" baseItem="0" numFmtId="3"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable21.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable18" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="N6:O8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="10">
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
-      <items count="2">
-        <item x="0"/>
-        <item x="1"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item t="default" sd="0"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="47">
-        <item x="29"/>
-        <item x="31"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="23"/>
-        <item x="22"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="26"/>
-        <item x="25"/>
-        <item x="24"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="30"/>
-        <item x="32"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="11"/>
-        <item x="9"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="10"/>
-        <item x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="45"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="4"/>
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="3" hier="-1"/>
-    <pageField fld="5" item="43" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Value" fld="6" baseField="3" baseItem="27" numFmtId="3"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable22.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable15" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="Q6:R8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="10">
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
-      <items count="2">
-        <item x="0"/>
-        <item x="1"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item t="default" sd="0"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="47">
-        <item x="29"/>
-        <item x="31"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="23"/>
-        <item x="22"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="26"/>
-        <item x="25"/>
-        <item x="24"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="30"/>
-        <item x="32"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="11"/>
-        <item x="9"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="10"/>
-        <item x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="45"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="4"/>
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="3" hier="-1"/>
-    <pageField fld="5" item="36" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Average of Value" fld="6" subtotal="average" baseField="3" baseItem="27" numFmtId="3"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable23.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable12" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable12" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B6:D8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="10">
     <pivotField showAll="0" defaultSubtotal="0"/>
@@ -41594,8 +41062,211 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable24.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable17" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="AE5:AF7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="10">
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="2">
+        <item x="0"/>
+        <item x="1"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="47">
+        <item x="29"/>
+        <item x="31"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="23"/>
+        <item x="22"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="26"/>
+        <item x="25"/>
+        <item x="24"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="30"/>
+        <item x="32"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="11"/>
+        <item x="9"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="10"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="45"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="5" item="13" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Value" fld="6" baseField="3" baseItem="0" numFmtId="3"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable20.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable19" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="W5:X7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="11">
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="36">
+        <item x="23"/>
+        <item x="6"/>
+        <item x="15"/>
+        <item x="26"/>
+        <item x="9"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="25"/>
+        <item x="4"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="30"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item x="10"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="14"/>
+        <item x="5"/>
+        <item x="24"/>
+        <item x="0"/>
+        <item x="28"/>
+        <item x="16"/>
+        <item x="22"/>
+        <item x="21"/>
+        <item x="29"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="27"/>
+        <item x="2"/>
+        <item x="17"/>
+        <item x="13"/>
+        <item x="34"/>
+        <item x="33"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="3" item="34" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Completed" fld="6" baseField="1" baseItem="0" numFmtId="3"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable21.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable17" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="Z5:AA7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="11">
     <pivotField showAll="0" defaultSubtotal="0"/>
@@ -41691,8 +41362,345 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable22.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable16" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="T5:U7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="11">
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="36">
+        <item x="23"/>
+        <item x="6"/>
+        <item x="15"/>
+        <item x="26"/>
+        <item x="9"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="25"/>
+        <item x="4"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="30"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item x="10"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="14"/>
+        <item x="5"/>
+        <item x="24"/>
+        <item x="0"/>
+        <item x="28"/>
+        <item x="16"/>
+        <item x="22"/>
+        <item x="21"/>
+        <item x="29"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="27"/>
+        <item x="2"/>
+        <item x="17"/>
+        <item x="13"/>
+        <item x="34"/>
+        <item x="33"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="3" item="9" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Max of Latency (ms)" fld="10" subtotal="max" baseField="1" baseItem="0" numFmtId="3"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable23.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable18" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="N6:O8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="10">
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="2">
+        <item x="0"/>
+        <item x="1"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item t="default" sd="0"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="47">
+        <item x="29"/>
+        <item x="31"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="23"/>
+        <item x="22"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="26"/>
+        <item x="25"/>
+        <item x="24"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="30"/>
+        <item x="32"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="11"/>
+        <item x="9"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="10"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="45"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="4"/>
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="3" hier="-1"/>
+    <pageField fld="5" item="43" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Value" fld="6" baseField="3" baseItem="27" numFmtId="3"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable24.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable15" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="Q6:R8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="10">
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="2">
+        <item x="0"/>
+        <item x="1"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item t="default" sd="0"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="47">
+        <item x="29"/>
+        <item x="31"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="23"/>
+        <item x="22"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="26"/>
+        <item x="25"/>
+        <item x="24"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="30"/>
+        <item x="32"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="11"/>
+        <item x="9"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="10"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="45"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="4"/>
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="3" hier="-1"/>
+    <pageField fld="5" item="36" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Average of Value" fld="6" subtotal="average" baseField="3" baseItem="27" numFmtId="3"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable25.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A5:C7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="10">
     <pivotField showAll="0" defaultSubtotal="0"/>
@@ -41812,7 +41820,7 @@
     <dataField name="Average of Size in MB(Formatted)" fld="8" subtotal="average" baseField="3" baseItem="19" numFmtId="4"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="14">
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -41821,7 +41829,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="13">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -41841,7 +41849,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable26.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="H6:J8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="10">
     <pivotField showAll="0" defaultSubtotal="0"/>
@@ -41961,7 +41969,7 @@
     <dataField name="Average of Size in MB(Formatted)" fld="8" subtotal="average" baseField="3" baseItem="19" numFmtId="4"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="16">
+    <format dxfId="3">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -41970,7 +41978,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="15">
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -41990,8 +41998,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable7" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="AH5:AI7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="F6:H8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="10">
     <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisPage" showAll="0">
@@ -42007,8 +42015,20 @@
         <item x="1"/>
       </items>
     </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item t="default" sd="0"/>
+      </items>
+    </pivotField>
     <pivotField axis="axisPage" showAll="0">
       <items count="47">
         <item x="29"/>
@@ -42065,26 +42085,37 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0" defaultSubtotal="0"/>
   </pivotFields>
-  <rowFields count="1">
+  <rowFields count="2">
+    <field x="4"/>
     <field x="2"/>
   </rowFields>
   <rowItems count="2">
     <i>
-      <x/>
+      <x v="1"/>
     </i>
     <i t="grand">
       <x/>
     </i>
   </rowItems>
-  <colItems count="1">
-    <i/>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
   </colItems>
-  <pageFields count="2">
+  <pageFields count="3">
     <pageField fld="1" hier="-1"/>
-    <pageField fld="5" item="1" hier="-1"/>
+    <pageField fld="3" hier="-1"/>
+    <pageField fld="5" item="13" hier="-1"/>
   </pageFields>
-  <dataFields count="1">
+  <dataFields count="2">
     <dataField name="Sum of Value" fld="6" baseField="3" baseItem="0" numFmtId="3"/>
+    <dataField name="Average of Value" fld="6" subtotal="average" baseField="3" baseItem="19" numFmtId="3"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -42096,7 +42127,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable10" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable10" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="Q6:R8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="10">
     <pivotField showAll="0" defaultSubtotal="0"/>
@@ -42216,7 +42247,66 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="Y4:Z7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="11">
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="2">
+        <item x="0"/>
+        <item x="1"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Dropped" fld="9" baseField="1" baseItem="0" numFmtId="3"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B6:D8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="10">
     <pivotField showAll="0" defaultSubtotal="0"/>
@@ -42344,8 +42434,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable8" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="N6:O8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="10">
     <pivotField showAll="0" defaultSubtotal="0"/>
@@ -42464,9 +42554,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="T6:V8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable9" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="J6:L8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="10">
     <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisPage" showAll="0">
@@ -42578,10 +42668,10 @@
   <pageFields count="3">
     <pageField fld="1" hier="-1"/>
     <pageField fld="3" hier="-1"/>
-    <pageField fld="5" item="16" hier="-1"/>
+    <pageField fld="5" item="40" hier="-1"/>
   </pageFields>
   <dataFields count="2">
-    <dataField name="Sum of Value" fld="6" baseField="3" baseItem="0" numFmtId="3"/>
+    <dataField name="Max of Value" fld="6" subtotal="max" baseField="3" baseItem="27" numFmtId="3"/>
     <dataField name="Average of Value" fld="6" subtotal="average" baseField="3" baseItem="19" numFmtId="3"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
@@ -42593,9 +42683,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="AE5:AF7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="AB5:AC7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="10">
     <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisPage" showAll="0">
@@ -42685,139 +42775,10 @@
   </colItems>
   <pageFields count="2">
     <pageField fld="1" hier="-1"/>
-    <pageField fld="5" item="13" hier="-1"/>
+    <pageField fld="5" item="11" hier="-1"/>
   </pageFields>
   <dataFields count="1">
     <dataField name="Sum of Value" fld="6" baseField="3" baseItem="0" numFmtId="3"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="F6:H8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="10">
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
-      <items count="2">
-        <item x="0"/>
-        <item x="1"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item t="default" sd="0"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="47">
-        <item x="29"/>
-        <item x="31"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="23"/>
-        <item x="22"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="26"/>
-        <item x="25"/>
-        <item x="24"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="30"/>
-        <item x="32"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="11"/>
-        <item x="9"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="10"/>
-        <item x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="45"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="4"/>
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="3" hier="-1"/>
-    <pageField fld="5" item="13" hier="-1"/>
-  </pageFields>
-  <dataFields count="2">
-    <dataField name="Sum of Value" fld="6" baseField="3" baseItem="0" numFmtId="3"/>
-    <dataField name="Average of Value" fld="6" subtotal="average" baseField="3" baseItem="19" numFmtId="3"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -42904,23 +42865,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -42956,23 +42900,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -43973,7 +43900,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Z6" sqref="Z6:AA6"/>
-      <pivotSelection pane="bottomRight" showHeader="1" extendable="1" max="2" activeRow="5" activeCol="25" click="1" r:id="rId8">
+      <pivotSelection pane="bottomRight" showHeader="1" extendable="1" max="2" activeRow="5" activeCol="25" click="1" r:id="rId5">
         <pivotArea dataOnly="0" fieldPosition="0">
           <references count="2">
             <reference field="2" count="1">
@@ -44383,7 +44310,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="K8" sqref="K8:L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -44501,7 +44428,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="7">
-        <f>B7 / 1024</f>
+        <f>B6 / 1024</f>
         <v>0</v>
       </c>
       <c r="F6" s="7">
@@ -44534,14 +44461,6 @@
       <c r="C7" s="7">
         <v>0</v>
       </c>
-      <c r="E7" s="7">
-        <f>B8 / 1024</f>
-        <v>0</v>
-      </c>
-      <c r="F7" s="7">
-        <f>E7/1024</f>
-        <v>0</v>
-      </c>
       <c r="H7" s="5" t="s">
         <v>58</v>
       </c>
@@ -44568,14 +44487,6 @@
         <v>0</v>
       </c>
       <c r="J8" s="7">
-        <v>0</v>
-      </c>
-      <c r="K8" s="7">
-        <f>I8 / 1024</f>
-        <v>0</v>
-      </c>
-      <c r="L8" s="7">
-        <f>K8/1024</f>
         <v>0</v>
       </c>
     </row>
